--- a/biology/Médecine/Monophtalmie/Monophtalmie.xlsx
+++ b/biology/Médecine/Monophtalmie/Monophtalmie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La monophtalmie désigne en médecine le fait de ne voir que d'un œil. Les êtres vivants touchés par la monophtalmie sont couramment appelés borgnes. Les causes de monophtalmie sont très diverses : congénitales, traumatiques, fonctionnelles, organiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Stéréotype</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans de nombreuses œuvres de fiction, le borgne est très souvent représenté comme un personnage mauvais, sinistre et brutal, ayant un rôle de méchant.
 Le cyclope est l'archétype du monophtalme dans la mythologie grecque antique.
@@ -544,7 +558,9 @@
           <t>Personnalités borgnes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Antigone le Borgne (-384 / -301), général macédonien.
 Philippe II (-382/-336), roi de Macédoine de la dynastie des Argéades, père d'Alexandre le Grand.
@@ -614,7 +630,7 @@
 María de Villota (1980-2013), pilote automobile espagnole, (borgne à la suite d'un accident en 2012, lors d'essais à Duxford).
 Karol Bielecki (1982-), handballeur international polonais.
 Fetty Wap (1991-), rappeur américain.
-Une appellation plutôt connue est que les cinéastes américains Ford, Lang, Ray, de Toth, Avery et Walsh furent souvent qualifiés de « borgnes de Hollywood »[1],[2].
+Une appellation plutôt connue est que les cinéastes américains Ford, Lang, Ray, de Toth, Avery et Walsh furent souvent qualifiés de « borgnes de Hollywood »,.
 </t>
         </is>
       </c>
